--- a/biology/Médecine/Cholestérolémie/Cholestérolémie.xlsx
+++ b/biology/Médecine/Cholestérolémie/Cholestérolémie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cholest%C3%A9rol%C3%A9mie</t>
+          <t>Cholestérolémie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La cholestérolémie est le taux de cholestérol total sérique. Une hypercholestérolémie est une élévation pathologique de la cholestérolémie.
 La cholestérolémie moyenne est de 4,64 mmol/l chez l'homme et de 4,76 mmol/l chez la femme.
- Elle est sensiblement plus haute dans les pays riches (5,24 mmol/l chez l'homme et 5,23 mmol/l chez la femme), avec toutefois, une tendance à une légère décroissance depuis les années 1980[1].
+ Elle est sensiblement plus haute dans les pays riches (5,24 mmol/l chez l'homme et 5,23 mmol/l chez la femme), avec toutefois, une tendance à une légère décroissance depuis les années 1980.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cholest%C3%A9rol%C3%A9mie</t>
+          <t>Cholestérolémie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Facteurs d'augmentation de la cholestérolémie HDL</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plusieurs facteurs dont les effets peuvent se cumuler sont[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs facteurs dont les effets peuvent se cumuler sont :
 l'âge ;
 être de sexe féminin ;
 l'activité physique ;
@@ -525,7 +539,7 @@
 prise d'insuline  ;
 utilisation d'œstroprogestatifs ;
 prédisposition génétique ;
-L'absorption modérée d'alcool a souvent été présentée - à juste titre - comme facteur de réduction du risque coronarien, mais ce n'est pas via le taux de cholestérol HDL qu'elle n'améliore aucunement[3].
+L'absorption modérée d'alcool a souvent été présentée - à juste titre - comme facteur de réduction du risque coronarien, mais ce n'est pas via le taux de cholestérol HDL qu'elle n'améliore aucunement.
 </t>
         </is>
       </c>
@@ -536,7 +550,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cholest%C3%A9rol%C3%A9mie</t>
+          <t>Cholestérolémie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -554,9 +568,11 @@
           <t>Facteurs de diminution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certains facteurs font chuter le taux du bon cholestérol[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certains facteurs font chuter le taux du bon cholestérol :
 Tabagisme
 utilisation de progestatifs
 diabète
@@ -571,7 +587,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cholest%C3%A9rol%C3%A9mie</t>
+          <t>Cholestérolémie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -589,9 +605,11 @@
           <t>LDL et HDL</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les analyses de sang distinguent maintenant deux types de cholestérol, le lourd et le léger, respectivement les fractions HDL[4] et LDL[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les analyses de sang distinguent maintenant deux types de cholestérol, le lourd et le léger, respectivement les fractions HDL et LDL.
 Le cholestérol HDL a des vertus « protectrices » qui se traduisent par une relation inverse entre la concentration en HDL-cholestérol et la fréquence des complications cardiovasculaires.
 </t>
         </is>
@@ -603,7 +621,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cholest%C3%A9rol%C3%A9mie</t>
+          <t>Cholestérolémie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -621,9 +639,11 @@
           <t>Taux normal de cholestérol lourd selon l'âge</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le taux de HDL (lipoprotéine de haute densité) tend naturellement à légèrement augmenter avec l'âge[2], mais alors que d'autres facteurs de risques augmentent.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le taux de HDL (lipoprotéine de haute densité) tend naturellement à légèrement augmenter avec l'âge, mais alors que d'autres facteurs de risques augmentent.
 </t>
         </is>
       </c>
